--- a/Dados/MEF_Pessoas.xlsx
+++ b/Dados/MEF_Pessoas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28411"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03031B-5E18-45F6-A066-ECAB76C19455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F72AE94-592D-4DAD-BCBB-FB5199EB9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ED4916E2-5653-493D-9A85-6B7826F31B5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>P</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>P = Porta</t>
+  </si>
+  <si>
+    <t>U = Acréscimo</t>
+  </si>
+  <si>
+    <t>D = Decréscimo</t>
+  </si>
+  <si>
+    <t>A = Alarme</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -107,15 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,15 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D267A7-B1A2-40E1-A06F-3314DF3D516C}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +515,48 @@
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -525,8 +588,42 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -551,15 +648,46 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -591,8 +719,39 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -617,15 +776,46 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -657,8 +847,39 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -683,15 +904,46 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -723,8 +975,39 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -743,21 +1026,52 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -789,8 +1103,39 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -822,8 +1167,39 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -848,15 +1224,46 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -888,8 +1295,39 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -914,15 +1352,46 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -954,8 +1423,39 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -980,15 +1480,46 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1020,8 +1551,39 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1046,15 +1608,46 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1086,8 +1679,39 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1112,15 +1736,46 @@
       <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1152,8 +1807,39 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1178,15 +1864,46 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1218,8 +1935,39 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1244,15 +1992,46 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1277,15 +2056,46 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1317,8 +2127,39 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1343,15 +2184,46 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1383,8 +2255,39 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1409,15 +2312,46 @@
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1449,8 +2383,39 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1475,15 +2440,46 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1515,8 +2511,39 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1541,15 +2568,46 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1574,15 +2632,46 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1607,15 +2696,46 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1640,15 +2760,46 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1673,15 +2824,46 @@
       <c r="J37" s="1">
         <v>1</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1706,15 +2888,46 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1739,15 +2952,46 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1772,15 +3016,46 @@
       <c r="J40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1805,15 +3080,46 @@
       <c r="J41" s="1">
         <v>1</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -1838,15 +3144,46 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1871,15 +3208,46 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1904,15 +3272,46 @@
       <c r="J44" s="1">
         <v>1</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -1937,15 +3336,46 @@
       <c r="J45" s="1">
         <v>1</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="1">
         <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -1970,15 +3400,46 @@
       <c r="J46" s="1">
         <v>0</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S46" s="1">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -2003,15 +3464,46 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -2036,15 +3528,46 @@
       <c r="J48" s="1">
         <v>1</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -2069,15 +3592,46 @@
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S49" s="1">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -2102,15 +3656,46 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -2135,15 +3720,46 @@
       <c r="J51" s="1">
         <v>0</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -2168,15 +3784,46 @@
       <c r="J52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -2201,15 +3848,46 @@
       <c r="J53" s="1">
         <v>1</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -2234,15 +3912,46 @@
       <c r="J54" s="1">
         <v>0</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -2267,15 +3976,46 @@
       <c r="J55" s="1">
         <v>0</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -2300,15 +4040,46 @@
       <c r="J56" s="1">
         <v>1</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>1</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -2333,15 +4104,46 @@
       <c r="J57" s="1">
         <v>1</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -2366,15 +4168,46 @@
       <c r="J58" s="1">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -2399,15 +4232,46 @@
       <c r="J59" s="1">
         <v>0</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="1">
         <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -2432,15 +4296,46 @@
       <c r="J60" s="1">
         <v>1</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S60" s="1">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -2465,15 +4360,46 @@
       <c r="J61" s="1">
         <v>1</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -2498,15 +4424,46 @@
       <c r="J62" s="1">
         <v>0</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S62" s="1">
+        <v>1</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1">
+        <v>1</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -2531,15 +4488,46 @@
       <c r="J63" s="1">
         <v>0</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="1">
         <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -2564,15 +4552,46 @@
       <c r="J64" s="1">
         <v>1</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="1">
         <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1</v>
+      </c>
+      <c r="U64" s="1">
+        <v>1</v>
+      </c>
+      <c r="W64" s="1">
+        <v>1</v>
+      </c>
+      <c r="X64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -2597,11 +4616,42 @@
       <c r="J65" s="1">
         <v>1</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="1">
         <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Dados/MEF_Pessoas.xlsx
+++ b/Dados/MEF_Pessoas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F72AE94-592D-4DAD-BCBB-FB5199EB9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D4656-0A54-48B1-96B3-7185AACF6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ED4916E2-5653-493D-9A85-6B7826F31B5C}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED4916E2-5653-493D-9A85-6B7826F31B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>P</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>0 = Desligado</t>
+  </si>
+  <si>
+    <t>1 = Ligado</t>
+  </si>
+  <si>
+    <t>0 = Aberta</t>
+  </si>
+  <si>
+    <t>1 = Fechada</t>
   </si>
 </sst>
 </file>
@@ -470,20 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D267A7-B1A2-40E1-A06F-3314DF3D516C}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,47 +529,50 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,18 +605,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1"/>
       <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>0</v>
       </c>
-      <c r="W2" s="1">
+      <c r="V2" s="1">
         <v>0</v>
       </c>
       <c r="X2" s="1">
@@ -609,7 +626,7 @@
       <c r="Y2" s="1">
         <v>0</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="Z2" s="1">
         <v>0</v>
       </c>
       <c r="AB2" s="1">
@@ -618,12 +635,15 @@
       <c r="AC2" s="1">
         <v>0</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -655,8 +675,11 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="1">
-        <v>0</v>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -664,30 +687,33 @@
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="W3" s="1">
+      <c r="V3" s="1">
         <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -719,39 +745,39 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="W4" s="1">
+      <c r="V4" s="1">
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -783,39 +809,39 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
       <c r="T5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
-      <c r="W5" s="1">
+      <c r="V5" s="1">
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>1</v>
       </c>
-      <c r="AA5" s="1">
-        <v>0</v>
+      <c r="Z5" s="1">
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -847,39 +873,39 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="W6" s="1">
-        <v>1</v>
+      <c r="V6" s="1">
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -911,39 +937,39 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="W7" s="1">
-        <v>1</v>
+      <c r="V7" s="1">
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -975,39 +1001,39 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="1">
-        <v>1</v>
+      <c r="V8" s="1">
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
         <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1039,17 +1065,14 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="W9" s="1">
-        <v>1</v>
+      <c r="V9" s="1">
+        <v>0</v>
       </c>
       <c r="X9" s="1">
         <v>1</v>
@@ -1057,7 +1080,7 @@
       <c r="Y9" s="1">
         <v>1</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="Z9" s="1">
         <v>1</v>
       </c>
       <c r="AB9" s="1">
@@ -1066,12 +1089,15 @@
       <c r="AC9" s="1">
         <v>1</v>
       </c>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1103,17 +1129,14 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -1121,7 +1144,7 @@
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="Z10" s="1">
         <v>0</v>
       </c>
       <c r="AB10" s="1">
@@ -1130,12 +1153,15 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1167,26 +1193,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
       <c r="T11" s="1">
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -1194,12 +1217,15 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1231,39 +1257,39 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
         <v>0</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1295,39 +1321,39 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
       <c r="T13" s="1">
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>1</v>
       </c>
-      <c r="AA13" s="1">
-        <v>0</v>
+      <c r="Z13" s="1">
+        <v>1</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1359,39 +1385,39 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
         <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="Z14" s="1">
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
         <v>1</v>
       </c>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1423,39 +1449,39 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
       <c r="T15" s="1">
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
         <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1487,39 +1513,39 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
       <c r="T16" s="1">
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
         <v>1</v>
       </c>
       <c r="X16" s="1">
         <v>1</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1551,16 +1577,13 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
       <c r="T17" s="1">
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
         <v>1</v>
       </c>
       <c r="X17" s="1">
@@ -1569,21 +1592,24 @@
       <c r="Y17" s="1">
         <v>1</v>
       </c>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="1">
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2">
         <v>1</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1615,16 +1641,13 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
@@ -1633,21 +1656,24 @@
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="Z18" s="1">
         <v>0</v>
       </c>
       <c r="AB18" s="1">
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1679,39 +1705,39 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
       </c>
       <c r="AB19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1743,39 +1769,39 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
         <v>1</v>
       </c>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1807,39 +1833,39 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
       <c r="T21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <v>1</v>
       </c>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1</v>
       </c>
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1871,39 +1897,39 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1</v>
       </c>
       <c r="AC22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1935,39 +1961,39 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="2">
         <v>1</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1999,39 +2025,39 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
       <c r="T24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
       </c>
       <c r="X24" s="1">
         <v>1</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
         <v>1</v>
       </c>
       <c r="AC24" s="1">
         <v>1</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2063,17 +2089,14 @@
       <c r="M25" s="1">
         <v>1</v>
       </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
       <c r="T25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <v>1</v>
@@ -2081,21 +2104,24 @@
       <c r="Y25" s="1">
         <v>1</v>
       </c>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="1">
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2">
         <v>1</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
       </c>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2127,17 +2153,14 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
       <c r="T26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>1</v>
       </c>
-      <c r="W26" s="1">
-        <v>0</v>
+      <c r="V26" s="1">
+        <v>1</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
@@ -2145,7 +2168,7 @@
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="Z26" s="1">
         <v>0</v>
       </c>
       <c r="AB26" s="1">
@@ -2154,12 +2177,15 @@
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2191,39 +2217,39 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
         <v>1</v>
       </c>
-      <c r="W27" s="1">
-        <v>0</v>
+      <c r="V27" s="1">
+        <v>1</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -2255,39 +2281,39 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
       <c r="T28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
         <v>1</v>
       </c>
-      <c r="W28" s="1">
-        <v>0</v>
+      <c r="V28" s="1">
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
         <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2319,39 +2345,39 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <v>1</v>
       </c>
-      <c r="W29" s="1">
-        <v>0</v>
+      <c r="V29" s="1">
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>1</v>
       </c>
-      <c r="AA29" s="1">
-        <v>0</v>
+      <c r="Z29" s="1">
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
         <v>1</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2383,39 +2409,39 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>1</v>
       </c>
-      <c r="W30" s="1">
+      <c r="V30" s="1">
         <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
-      <c r="AA30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2447,39 +2473,39 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>1</v>
       </c>
-      <c r="W31" s="1">
+      <c r="V31" s="1">
         <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>1</v>
       </c>
       <c r="AC31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2511,39 +2537,39 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
       <c r="T32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <v>1</v>
       </c>
-      <c r="W32" s="1">
+      <c r="V32" s="1">
         <v>1</v>
       </c>
       <c r="X32" s="1">
         <v>1</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
         <v>1</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2575,16 +2601,13 @@
       <c r="M33" s="1">
         <v>1</v>
       </c>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <v>1</v>
       </c>
-      <c r="W33" s="1">
+      <c r="V33" s="1">
         <v>1</v>
       </c>
       <c r="X33" s="1">
@@ -2593,21 +2616,24 @@
       <c r="Y33" s="1">
         <v>1</v>
       </c>
-      <c r="AA33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="1">
+      <c r="Z33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2">
         <v>1</v>
       </c>
       <c r="AC33" s="1">
         <v>1</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2639,16 +2665,13 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
       <c r="T34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
       </c>
-      <c r="W34" s="1">
+      <c r="V34" s="1">
         <v>0</v>
       </c>
       <c r="X34" s="1">
@@ -2657,7 +2680,7 @@
       <c r="Y34" s="1">
         <v>0</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="Z34" s="1">
         <v>0</v>
       </c>
       <c r="AB34" s="1">
@@ -2666,12 +2689,15 @@
       <c r="AC34" s="1">
         <v>0</v>
       </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2703,39 +2729,39 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="1">
-        <v>1</v>
-      </c>
       <c r="T35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
       </c>
-      <c r="W35" s="1">
+      <c r="V35" s="1">
         <v>0</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2767,39 +2793,39 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="1">
-        <v>1</v>
-      </c>
       <c r="T36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
       </c>
-      <c r="W36" s="1">
+      <c r="V36" s="1">
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
         <v>0</v>
       </c>
       <c r="AB36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2831,39 +2857,39 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="1">
-        <v>1</v>
-      </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
       </c>
-      <c r="W37" s="1">
+      <c r="V37" s="1">
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>1</v>
       </c>
-      <c r="AA37" s="1">
-        <v>0</v>
+      <c r="Z37" s="1">
+        <v>1</v>
       </c>
       <c r="AB37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
         <v>1</v>
       </c>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2895,39 +2921,39 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="S38" s="1">
-        <v>1</v>
-      </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
       </c>
-      <c r="W38" s="1">
-        <v>1</v>
+      <c r="V38" s="1">
+        <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
       </c>
-      <c r="AA38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
       </c>
       <c r="AC38" s="1">
         <v>0</v>
       </c>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2959,39 +2985,39 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="1">
-        <v>1</v>
-      </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="1">
         <v>0</v>
       </c>
-      <c r="W39" s="1">
-        <v>1</v>
+      <c r="V39" s="1">
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1</v>
       </c>
       <c r="AC39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -3023,39 +3049,39 @@
       <c r="M40" s="1">
         <v>0</v>
       </c>
-      <c r="S40" s="1">
-        <v>1</v>
-      </c>
       <c r="T40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="1">
         <v>0</v>
       </c>
-      <c r="W40" s="1">
-        <v>1</v>
+      <c r="V40" s="1">
+        <v>0</v>
       </c>
       <c r="X40" s="1">
         <v>1</v>
       </c>
       <c r="Y40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
         <v>1</v>
       </c>
       <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -3087,17 +3113,14 @@
       <c r="M41" s="1">
         <v>1</v>
       </c>
-      <c r="S41" s="1">
-        <v>1</v>
-      </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
       </c>
-      <c r="W41" s="1">
-        <v>1</v>
+      <c r="V41" s="1">
+        <v>0</v>
       </c>
       <c r="X41" s="1">
         <v>1</v>
@@ -3105,21 +3128,24 @@
       <c r="Y41" s="1">
         <v>1</v>
       </c>
-      <c r="AA41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1">
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="2">
         <v>1</v>
       </c>
       <c r="AC41" s="1">
         <v>1</v>
       </c>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -3151,17 +3177,14 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="1">
-        <v>1</v>
-      </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="1">
-        <v>1</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
@@ -3169,7 +3192,7 @@
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="Z42" s="1">
         <v>0</v>
       </c>
       <c r="AB42" s="1">
@@ -3178,12 +3201,15 @@
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -3215,39 +3241,39 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="1">
-        <v>1</v>
-      </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
       </c>
       <c r="X43" s="1">
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
       </c>
       <c r="AB43" s="1">
         <v>0</v>
       </c>
       <c r="AC43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -3279,39 +3305,39 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="1">
-        <v>1</v>
-      </c>
       <c r="T44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="1">
-        <v>1</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
       </c>
       <c r="X44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
         <v>0</v>
       </c>
       <c r="AB44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3343,39 +3369,39 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="1">
-        <v>1</v>
-      </c>
       <c r="T45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="1">
-        <v>1</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1</v>
       </c>
       <c r="X45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
         <v>1</v>
       </c>
-      <c r="AA45" s="1">
-        <v>0</v>
+      <c r="Z45" s="1">
+        <v>1</v>
       </c>
       <c r="AB45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3407,39 +3433,39 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="1">
-        <v>1</v>
-      </c>
       <c r="T46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="1">
-        <v>1</v>
-      </c>
-      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
         <v>1</v>
       </c>
       <c r="X46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="AA46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>1</v>
       </c>
       <c r="AC46" s="1">
         <v>0</v>
       </c>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3471,39 +3497,39 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="1">
-        <v>1</v>
-      </c>
       <c r="T47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="1">
-        <v>1</v>
-      </c>
-      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
         <v>1</v>
       </c>
       <c r="X47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>1</v>
       </c>
       <c r="AC47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3535,39 +3561,39 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="1">
-        <v>1</v>
-      </c>
       <c r="T48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="1">
-        <v>1</v>
-      </c>
-      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
         <v>1</v>
       </c>
       <c r="X48" s="1">
         <v>1</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
         <v>1</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3599,16 +3625,13 @@
       <c r="M49" s="1">
         <v>1</v>
       </c>
-      <c r="S49" s="1">
-        <v>1</v>
-      </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
-      </c>
-      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
         <v>1</v>
       </c>
       <c r="X49" s="1">
@@ -3617,21 +3640,24 @@
       <c r="Y49" s="1">
         <v>1</v>
       </c>
-      <c r="AA49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="1">
+      <c r="Z49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2">
         <v>1</v>
       </c>
       <c r="AC49" s="1">
         <v>1</v>
       </c>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3663,16 +3689,13 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="1">
-        <v>1</v>
-      </c>
       <c r="T50" s="1">
         <v>1</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
         <v>0</v>
       </c>
       <c r="X50" s="1">
@@ -3681,7 +3704,7 @@
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="Z50" s="1">
         <v>0</v>
       </c>
       <c r="AB50" s="1">
@@ -3690,12 +3713,15 @@
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3727,39 +3753,39 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="1">
-        <v>1</v>
-      </c>
       <c r="T51" s="1">
         <v>1</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="1">
+        <v>1</v>
+      </c>
+      <c r="V51" s="1">
         <v>0</v>
       </c>
       <c r="X51" s="1">
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>1</v>
       </c>
       <c r="AB51" s="1">
         <v>0</v>
       </c>
       <c r="AC51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3791,39 +3817,39 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="1">
-        <v>1</v>
-      </c>
       <c r="T52" s="1">
         <v>1</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="1">
         <v>0</v>
       </c>
       <c r="X52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="1">
         <v>0</v>
       </c>
       <c r="AB52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3855,39 +3881,39 @@
       <c r="M53" s="1">
         <v>0</v>
       </c>
-      <c r="S53" s="1">
-        <v>1</v>
-      </c>
       <c r="T53" s="1">
         <v>1</v>
       </c>
       <c r="U53" s="1">
-        <v>0</v>
-      </c>
-      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="V53" s="1">
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>1</v>
       </c>
-      <c r="AA53" s="1">
-        <v>0</v>
+      <c r="Z53" s="1">
+        <v>1</v>
       </c>
       <c r="AB53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="1">
         <v>1</v>
       </c>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3919,39 +3945,39 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="1">
-        <v>1</v>
-      </c>
       <c r="T54" s="1">
         <v>1</v>
       </c>
       <c r="U54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="AA54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>0</v>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>1</v>
       </c>
       <c r="AC54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3983,39 +4009,39 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="1">
-        <v>1</v>
-      </c>
       <c r="T55" s="1">
         <v>1</v>
       </c>
       <c r="U55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>1</v>
       </c>
       <c r="AC55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -4047,39 +4073,39 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="1">
-        <v>1</v>
-      </c>
       <c r="T56" s="1">
         <v>1</v>
       </c>
       <c r="U56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
       </c>
       <c r="X56" s="1">
         <v>1</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
         <v>1</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -4111,17 +4137,14 @@
       <c r="M57" s="1">
         <v>1</v>
       </c>
-      <c r="S57" s="1">
-        <v>1</v>
-      </c>
       <c r="T57" s="1">
         <v>1</v>
       </c>
       <c r="U57" s="1">
-        <v>0</v>
-      </c>
-      <c r="W57" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
       </c>
       <c r="X57" s="1">
         <v>1</v>
@@ -4129,21 +4152,24 @@
       <c r="Y57" s="1">
         <v>1</v>
       </c>
-      <c r="AA57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="1">
+      <c r="Z57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="2">
         <v>1</v>
       </c>
       <c r="AC57" s="1">
         <v>1</v>
       </c>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -4175,17 +4201,14 @@
       <c r="M58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="1">
-        <v>1</v>
-      </c>
       <c r="T58" s="1">
         <v>1</v>
       </c>
       <c r="U58" s="1">
         <v>1</v>
       </c>
-      <c r="W58" s="1">
-        <v>0</v>
+      <c r="V58" s="1">
+        <v>1</v>
       </c>
       <c r="X58" s="1">
         <v>0</v>
@@ -4193,7 +4216,7 @@
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="AA58" s="1">
+      <c r="Z58" s="1">
         <v>0</v>
       </c>
       <c r="AB58" s="1">
@@ -4202,12 +4225,15 @@
       <c r="AC58" s="1">
         <v>0</v>
       </c>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -4239,39 +4265,39 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="1">
-        <v>1</v>
-      </c>
       <c r="T59" s="1">
         <v>1</v>
       </c>
       <c r="U59" s="1">
         <v>1</v>
       </c>
-      <c r="W59" s="1">
-        <v>0</v>
+      <c r="V59" s="1">
+        <v>1</v>
       </c>
       <c r="X59" s="1">
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>1</v>
       </c>
       <c r="AB59" s="1">
         <v>0</v>
       </c>
       <c r="AC59" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -4303,39 +4329,39 @@
       <c r="M60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="1">
-        <v>1</v>
-      </c>
       <c r="T60" s="1">
         <v>1</v>
       </c>
       <c r="U60" s="1">
         <v>1</v>
       </c>
-      <c r="W60" s="1">
-        <v>0</v>
+      <c r="V60" s="1">
+        <v>1</v>
       </c>
       <c r="X60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AB60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -4367,39 +4393,39 @@
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="1">
-        <v>1</v>
-      </c>
       <c r="T61" s="1">
         <v>1</v>
       </c>
       <c r="U61" s="1">
         <v>1</v>
       </c>
-      <c r="W61" s="1">
-        <v>0</v>
+      <c r="V61" s="1">
+        <v>1</v>
       </c>
       <c r="X61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
         <v>1</v>
       </c>
-      <c r="AA61" s="1">
-        <v>0</v>
+      <c r="Z61" s="1">
+        <v>1</v>
       </c>
       <c r="AB61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="1">
         <v>1</v>
       </c>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -4431,39 +4457,39 @@
       <c r="M62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="1">
-        <v>1</v>
-      </c>
       <c r="T62" s="1">
         <v>1</v>
       </c>
       <c r="U62" s="1">
         <v>1</v>
       </c>
-      <c r="W62" s="1">
+      <c r="V62" s="1">
         <v>1</v>
       </c>
       <c r="X62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="AA62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="1">
-        <v>0</v>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>1</v>
       </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -4495,39 +4521,39 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="1">
-        <v>1</v>
-      </c>
       <c r="T63" s="1">
         <v>1</v>
       </c>
       <c r="U63" s="1">
         <v>1</v>
       </c>
-      <c r="W63" s="1">
+      <c r="V63" s="1">
         <v>1</v>
       </c>
       <c r="X63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>1</v>
       </c>
       <c r="AC63" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -4559,39 +4585,39 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="1">
-        <v>1</v>
-      </c>
       <c r="T64" s="1">
         <v>1</v>
       </c>
       <c r="U64" s="1">
         <v>1</v>
       </c>
-      <c r="W64" s="1">
+      <c r="V64" s="1">
         <v>1</v>
       </c>
       <c r="X64" s="1">
         <v>1</v>
       </c>
       <c r="Y64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
         <v>1</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -4623,16 +4649,13 @@
       <c r="M65" s="1">
         <v>1</v>
       </c>
-      <c r="S65" s="1">
-        <v>1</v>
-      </c>
       <c r="T65" s="1">
         <v>1</v>
       </c>
       <c r="U65" s="1">
         <v>1</v>
       </c>
-      <c r="W65" s="1">
+      <c r="V65" s="1">
         <v>1</v>
       </c>
       <c r="X65" s="1">
@@ -4641,17 +4664,20 @@
       <c r="Y65" s="1">
         <v>1</v>
       </c>
-      <c r="AA65" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="1">
+      <c r="Z65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="2">
         <v>1</v>
       </c>
       <c r="AC65" s="1">
         <v>1</v>
       </c>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1">
+      <c r="AD65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1">
         <v>1</v>
       </c>
     </row>
